--- a/answer_key.xlsx
+++ b/answer_key.xlsx
@@ -26,8 +26,8 @@
     <t>2</t>
   </si>
   <si>
-    <t>What are the main types of - Supervised learning,
-unsupervised learning, reinforcement learning</t>
+    <t>- Supervised learning -unsupervised learning -reinforcement
+learning</t>
   </si>
   <si>
     <t>3</t>
@@ -391,7 +391,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/answer_key.xlsx
+++ b/answer_key.xlsx
@@ -26,8 +26,8 @@
     <t>2</t>
   </si>
   <si>
-    <t>- Supervised learning -unsupervised learning -reinforcement
-learning</t>
+    <t>- Supervised learning -unsupervised learning
+-reinforcement learning</t>
   </si>
   <si>
     <t>3</t>
@@ -391,7 +391,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
